--- a/src/assets/xlsx/업로드양식_재고관리_원자재출고등록.xlsx
+++ b/src/assets/xlsx/업로드양식_재고관리_원자재출고등록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\q-mes\src\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEE1E8-37D6-48B3-9C2C-EDDD7977F215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FF3CAC-4311-4E50-8AEF-786FE81F299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
+    <workbookView xWindow="6555" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023-02-13 17:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WDV621905000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,21 +71,23 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1E293B"/>
-        <rFont val="맑은 고딕"/>
+      <t>2023-02-13 17:35 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>비어있으면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1E293B"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+      <t>텍스트로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="Roboto"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -97,18 +95,17 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF1E293B"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>금일로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1E293B"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+      <t>해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="Roboto"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -116,20 +113,66 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF1E293B"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>자동 입력됨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>오류가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E293B"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>.)</t>
+    </r>
+  </si>
+  <si>
+    <t>비어있거나 날짜형식이 아니면 현시간으로 자동 입력됨</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,20 +204,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1E293B"/>
-      <name val="맑은 고딕"/>
+      <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1E293B"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1E293B"/>
-      <name val="Arial Unicode MS"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -223,7 +260,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,12 +580,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.75" customWidth="1"/>
@@ -556,13 +593,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -570,10 +607,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -588,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>

--- a/src/assets/xlsx/업로드양식_재고관리_원자재출고등록.xlsx
+++ b/src/assets/xlsx/업로드양식_재고관리_원자재출고등록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\q-mes\src\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FF3CAC-4311-4E50-8AEF-786FE81F299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2921D4-757A-4239-B9AA-41C251C1172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,8 +70,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2023-02-13 17:35 (</t>
+    <t>비어있거나 날짜형식이 아니면 현시간으로 자동 입력됨</t>
+  </si>
+  <si>
+    <r>
+      <t>2023-02-13 (</t>
     </r>
     <r>
       <rPr>
@@ -163,9 +166,7 @@
       </rPr>
       <t>.)</t>
     </r>
-  </si>
-  <si>
-    <t>비어있거나 날짜형식이 아니면 현시간으로 자동 입력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -580,7 +581,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -607,7 +608,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -622,7 +623,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
